--- a/biology/Mycologie/Morchella_smithiana/Morchella_smithiana.xlsx
+++ b/biology/Mycologie/Morchella_smithiana/Morchella_smithiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morchella smithiana est une espèce de champignons comestibles de Chine, du Tibet et du Pakistan, du genre Morchella de la famille des Morchellaceae dans l'ordre des Pezizales.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial
-Morchella smithiana Cooke 1878
-Synonymes
-Morchella crassipes var. smithiana (Cooke) Anon. Ined. 1878
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morchella smithiana Cooke 1878
 </t>
         </is>
       </c>
@@ -542,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morchella crassipes var. smithiana (Cooke) Anon. Ined. 1878
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Morchella_smithiana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_smithiana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description du Sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hyménophore
 Sensiblement proche de Morchella crassipes
@@ -556,37 +610,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Morchella_smithiana</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Morchella_smithiana</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Saison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Champignon printanier
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -608,12 +631,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Népal, Yunnan, Taishan, Cachemire.
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Champignon printanier
 </t>
         </is>
       </c>
@@ -639,10 +664,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Népal, Yunnan, Taishan, Cachemire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Morchella_smithiana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_smithiana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible
 </t>
